--- a/DataAnalysis/2025_유저_동향_자료.xlsx
+++ b/DataAnalysis/2025_유저_동향_자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868B1EB-6002-45CC-B80B-762184A3844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D086BB9D-D762-45EF-A476-9BC6A78C62EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21630" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="600" windowWidth="21630" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11030,7 +11030,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11048,6 +11048,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -11355,8 +11356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1595" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1606" sqref="E1606"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1088" sqref="C1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40837,8 +40838,8 @@
       <c r="C1134" t="s">
         <v>1136</v>
       </c>
-      <c r="D1134" s="3" t="s">
-        <v>3540</v>
+      <c r="D1134" s="7" t="s">
+        <v>3535</v>
       </c>
       <c r="E1134" s="4" t="s">
         <v>3523</v>
@@ -40846,8 +40847,8 @@
       <c r="F1134" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="G1134" s="4" t="b">
-        <v>0</v>
+      <c r="G1134" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="H1134" s="3" t="s">
         <v>3515</v>
@@ -41019,8 +41020,8 @@
       <c r="C1141" t="s">
         <v>1143</v>
       </c>
-      <c r="D1141" s="3" t="s">
-        <v>3540</v>
+      <c r="D1141" s="7" t="s">
+        <v>3535</v>
       </c>
       <c r="E1141" s="4" t="s">
         <v>3523</v>
@@ -41028,8 +41029,8 @@
       <c r="F1141" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="G1141" s="4" t="b">
-        <v>0</v>
+      <c r="G1141" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="H1141" s="3" t="s">
         <v>3515</v>
@@ -41097,8 +41098,8 @@
       <c r="C1144" t="s">
         <v>1146</v>
       </c>
-      <c r="D1144" s="3" t="s">
-        <v>3540</v>
+      <c r="D1144" s="7" t="s">
+        <v>3536</v>
       </c>
       <c r="E1144" s="4" t="s">
         <v>3523</v>
@@ -41106,8 +41107,8 @@
       <c r="F1144" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="G1144" s="4" t="b">
-        <v>0</v>
+      <c r="G1144" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="H1144" s="3" t="s">
         <v>3515</v>
